--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3597.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3597.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.872348759935413</v>
+        <v>1.352161407470703</v>
       </c>
       <c r="B1">
-        <v>4.166152538828178</v>
+        <v>3.984588861465454</v>
       </c>
       <c r="C1">
-        <v>3.752080546538977</v>
+        <v>3.765624046325684</v>
       </c>
       <c r="D1">
-        <v>1.090739884897837</v>
+        <v>1.683860898017883</v>
       </c>
       <c r="E1">
-        <v>0.7488875904288543</v>
+        <v>1.189673066139221</v>
       </c>
     </row>
   </sheetData>
